--- a/webscrapping final/Status años.xlsx
+++ b/webscrapping final/Status años.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianarodriguez/Documents/SED-git/webscrapping final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\SED---Cuantitativo\webscrapping final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E512269-8E42-D94A-8707-5E745A698487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA074F2A-017A-4006-B5C0-8BF34D1DD9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18740" windowWidth="30240" windowHeight="18900" xr2:uid="{5A25D117-20DC-5E41-AA48-B78565555695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A25D117-20DC-5E41-AA48-B78565555695}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t xml:space="preserve">Año </t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,21 +452,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D53C21A-E666-C341-BB39-C085817B1EA6}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -552,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -590,8 +590,17 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -604,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -617,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -630,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -655,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
